--- a/content/ensino/segundo-semestre-de-2022/mes-10-dia-2-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-10-dia-2-ava-matc65.xlsx
@@ -446,16 +446,16 @@
         <v>220121411</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>220215677</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1086,19 +1086,19 @@
         <v>219118768</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1185,28 +1185,28 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1316,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1374,13 +1374,13 @@
         <v>222215880</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1508,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1694,7 +1694,7 @@
         <v>216219204</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1726,16 +1726,16 @@
         <v>220217146</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1857,16 +1857,16 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
